--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1264350.561141732</v>
+        <v>1339880.230806537</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>11.95189872950512</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>152.9694256543806</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>101.6257152931843</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>129.0036366911897</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>188.2967440369996</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>270.7773459850746</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>25.50847190209162</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>223.8275496396399</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>15.44382317818194</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>341.7908522320151</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.74104475512576</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>119.2529319956768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>60.54139430664167</v>
+        <v>4.467071307535834</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>64.3419076393841</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2002,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>4.511658855087255</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>17.36362416970258</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2050,7 +2052,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2239,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>47.73764944014941</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>174.3062600431781</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>191.6534898356754</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2845,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>153.7693996663706</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>134.7660731567858</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>64.5252044802472</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>105.5303094322326</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>3.660952232140298</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>135.5535868730193</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>155.8385935972313</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3752,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>59.01585011841155</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3994,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>285.9888589191019</v>
+        <v>283.8073485474579</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1485.892406545185</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="C2" t="n">
-        <v>1485.892406545185</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="D2" t="n">
-        <v>1485.892406545185</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1100.104153946941</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>689.1182491573331</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4331,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.892406545185</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.892406545185</v>
+        <v>1761.414268258235</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4413,19 +4415,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.4444960005476</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C4" t="n">
-        <v>304.5083130726407</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="D4" t="n">
-        <v>304.5083130726407</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="E4" t="n">
-        <v>156.5952194902476</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="F4" t="n">
-        <v>156.5952194902476</v>
+        <v>353.2494858105065</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2496855488389</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005476</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.4444960005476</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4600,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2451.921670198211</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2120.85878285464</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1768.090127584526</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>216.0380259561522</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>216.0380259561522</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>216.0380259561522</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>216.0380259561522</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>216.0380259561522</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>216.0380259561522</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>216.0380259561522</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>79.70911505480044</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>502.0405502269999</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>502.0405502269999</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="W7" t="n">
-        <v>502.0405502269999</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="X7" t="n">
-        <v>502.0405502269999</v>
+        <v>216.0380259561522</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.2479710834698</v>
+        <v>216.0380259561522</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1391.972039273389</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4814,40 +4816,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1782.111371249201</v>
+        <v>1613.045573852188</v>
       </c>
       <c r="Y8" t="n">
-        <v>1391.972039273389</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>396.6060931634762</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="C10" t="n">
-        <v>396.6060931634762</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>709.1986359689337</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="Y10" t="n">
-        <v>578.2545579937159</v>
+        <v>494.9102127870964</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C13" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D13" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5229,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324574</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="X13" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y13" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5279,7 +5281,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115523</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5507,16 +5509,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5546,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.3089140050932</v>
+        <v>523.5986531011363</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>523.5986531011363</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>523.5986531011363</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
@@ -5698,25 +5700,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V19" t="n">
-        <v>1133.156678913841</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W19" t="n">
-        <v>843.7395088768803</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="X19" t="n">
-        <v>615.749957978863</v>
+        <v>705.247117931376</v>
       </c>
       <c r="Y19" t="n">
-        <v>394.9573788353329</v>
+        <v>705.247117931376</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,10 +5740,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5753,7 +5755,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5783,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>403.8614782555916</v>
+        <v>4503.139178847509</v>
       </c>
       <c r="C22" t="n">
-        <v>403.8614782555916</v>
+        <v>4334.202995919602</v>
       </c>
       <c r="D22" t="n">
-        <v>403.8614782555916</v>
+        <v>4184.086356507267</v>
       </c>
       <c r="E22" t="n">
-        <v>403.8614782555916</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="F22" t="n">
-        <v>256.9715307576812</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G22" t="n">
-        <v>256.9715307576812</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U22" t="n">
-        <v>874.927113122792</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V22" t="n">
-        <v>874.927113122792</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W22" t="n">
-        <v>585.5099430858313</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="X22" t="n">
-        <v>585.5099430858313</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="Y22" t="n">
-        <v>585.5099430858313</v>
+        <v>4684.787643677749</v>
       </c>
     </row>
     <row r="23">
@@ -5966,46 +5968,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6020,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581962</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
         <v>244.1070389581962</v>
@@ -6175,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1305.326886885503</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1016.198248099061</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>761.5137598931742</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>472.0965898562135</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X25" t="n">
-        <v>244.1070389581962</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y25" t="n">
-        <v>244.1070389581962</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6303,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.737288300438</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2432.614441745106</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.200876391121</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6421,13 +6423,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X28" t="n">
-        <v>1498.916270557902</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y28" t="n">
-        <v>1322.84934122136</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>809.2953582963255</v>
+        <v>4230.423978142506</v>
       </c>
       <c r="C31" t="n">
-        <v>809.2953582963255</v>
+        <v>4061.487795214599</v>
       </c>
       <c r="D31" t="n">
-        <v>809.2953582963255</v>
+        <v>3911.371155802263</v>
       </c>
       <c r="E31" t="n">
-        <v>661.3822647139324</v>
+        <v>3763.45806221987</v>
       </c>
       <c r="F31" t="n">
-        <v>514.492317216022</v>
+        <v>3763.45806221987</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>3595.282740539691</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.712528333286</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V31" t="n">
-        <v>1098.712528333286</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W31" t="n">
-        <v>809.2953582963255</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="X31" t="n">
-        <v>809.2953582963255</v>
+        <v>4632.865022116275</v>
       </c>
       <c r="Y31" t="n">
-        <v>809.2953582963255</v>
+        <v>4412.072442972745</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,34 +6685,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6734,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6786,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>465.7659634441654</v>
+        <v>4271.309566159736</v>
       </c>
       <c r="C34" t="n">
-        <v>465.7659634441654</v>
+        <v>4102.373383231829</v>
       </c>
       <c r="D34" t="n">
-        <v>465.7659634441654</v>
+        <v>4037.196409009357</v>
       </c>
       <c r="E34" t="n">
-        <v>465.7659634441654</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="F34" t="n">
-        <v>465.7659634441654</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="V34" t="n">
-        <v>755.183133481126</v>
+        <v>4271.309566159736</v>
       </c>
       <c r="W34" t="n">
-        <v>465.7659634441654</v>
+        <v>4271.309566159736</v>
       </c>
       <c r="X34" t="n">
-        <v>465.7659634441654</v>
+        <v>4271.309566159736</v>
       </c>
       <c r="Y34" t="n">
-        <v>465.7659634441654</v>
+        <v>4271.309566159736</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6968,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3743.324099770251</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C37" t="n">
-        <v>3574.387916842344</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>3570.689985294727</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>3570.689985294727</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4260.730820705228</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>4260.730820705228</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>3971.313650668268</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X37" t="n">
-        <v>3743.324099770251</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y37" t="n">
-        <v>3743.324099770251</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,16 +7174,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7190,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>485.404702608941</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L39" t="n">
-        <v>732.169830515405</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
-        <v>1039.489963795367</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1141.200876391121</v>
+        <v>4230.423978142506</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632137</v>
+        <v>4061.487795214599</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>3911.371155802263</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>3763.45806221987</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>3616.56811472196</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="X40" t="n">
-        <v>1498.916270557902</v>
+        <v>4632.865022116275</v>
       </c>
       <c r="Y40" t="n">
-        <v>1278.123691414372</v>
+        <v>4412.072442972745</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7402,19 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7488,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1089.278254829645</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C43" t="n">
-        <v>920.3420719017386</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
-        <v>770.2254324894028</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>622.3123389070097</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>475.4223914090993</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>307.2470697289199</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>156.8290612768632</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7603,16 +7605,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X43" t="n">
-        <v>1270.926719659885</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y43" t="n">
-        <v>1270.926719659885</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="44">
@@ -7628,43 +7630,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7725,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4037.196409009357</v>
+        <v>4039.3999548393</v>
       </c>
       <c r="C46" t="n">
-        <v>4037.196409009357</v>
+        <v>4039.3999548393</v>
       </c>
       <c r="D46" t="n">
-        <v>4037.196409009357</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="E46" t="n">
-        <v>3889.283315426963</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="F46" t="n">
-        <v>3889.283315426963</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746784</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294727</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N46" t="n">
         <v>4411.546387431056</v>
@@ -7837,19 +7839,19 @@
         <v>4326.074044281177</v>
       </c>
       <c r="U46" t="n">
-        <v>4037.196409009357</v>
+        <v>4039.3999548393</v>
       </c>
       <c r="V46" t="n">
-        <v>4037.196409009357</v>
+        <v>4039.3999548393</v>
       </c>
       <c r="W46" t="n">
-        <v>4037.196409009357</v>
+        <v>4039.3999548393</v>
       </c>
       <c r="X46" t="n">
-        <v>4037.196409009357</v>
+        <v>4039.3999548393</v>
       </c>
       <c r="Y46" t="n">
-        <v>4037.196409009357</v>
+        <v>4039.3999548393</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>288.409182577675</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>444.4889386861659</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>104.8749102765746</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10601,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>199.6230805871087</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>85.30006332127817</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>225.9816040299493</v>
+        <v>282.0559270290552</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>154.2427457127107</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>162.7351622435406</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>129.0703384768666</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>101.1761789273867</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>44.27839330891666</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24415,22 +24417,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>29.89407122271382</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>5.322962533237813</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>12.72416879700694</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>14.14775521075038</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24892,19 +24894,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>84.09026853796516</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>60.96325903114499</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>144.9545207860721</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25330,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>10.65497486614629</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>51.40339534586043</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26028,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.2484934794754849</v>
+        <v>2.430003851119409</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107741</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>954562.9802107741</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="15">
@@ -26314,7 +26316,7 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719629</v>
@@ -26329,31 +26331,31 @@
         <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="I2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="J2" t="n">
         <v>449683.4186983651</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="L2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="M2" t="n">
+        <v>449683.4186983654</v>
+      </c>
+      <c r="N2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="J2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="K2" t="n">
-        <v>449683.4186983651</v>
-      </c>
-      <c r="L2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>449683.4186983653</v>
       </c>
-      <c r="N2" t="n">
-        <v>449683.4186983651</v>
-      </c>
-      <c r="O2" t="n">
-        <v>449683.4186983651</v>
-      </c>
       <c r="P2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,22 +26426,22 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="H4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="I4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="J4" t="n">
         <v>36432.48351773394</v>
-      </c>
-      <c r="J4" t="n">
-        <v>36432.48351773395</v>
       </c>
       <c r="K4" t="n">
         <v>36432.48351773395</v>
@@ -26448,16 +26450,16 @@
         <v>36432.48351773395</v>
       </c>
       <c r="M4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="O4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="P4" t="n">
         <v>36432.48351773395</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="O4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="P4" t="n">
-        <v>36432.48351773394</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26488,28 +26490,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26522,13 +26524,13 @@
         <v>-384076.6264631189</v>
       </c>
       <c r="C6" t="n">
-        <v>205891.2527514255</v>
+        <v>205891.2527514256</v>
       </c>
       <c r="D6" t="n">
-        <v>205891.2527514255</v>
+        <v>205891.2527514254</v>
       </c>
       <c r="E6" t="n">
-        <v>-203896.4272449815</v>
+        <v>-203896.4272449814</v>
       </c>
       <c r="F6" t="n">
         <v>321263.6092319146</v>
@@ -26537,31 +26539,31 @@
         <v>321263.6092319146</v>
       </c>
       <c r="H6" t="n">
-        <v>321263.6092319145</v>
+        <v>321263.6092319146</v>
       </c>
       <c r="I6" t="n">
-        <v>321263.6092319146</v>
+        <v>321263.6092319147</v>
       </c>
       <c r="J6" t="n">
         <v>144840.3900393217</v>
       </c>
       <c r="K6" t="n">
-        <v>321263.6092319145</v>
+        <v>321263.6092319147</v>
       </c>
       <c r="L6" t="n">
-        <v>321263.6092319146</v>
+        <v>321263.6092319147</v>
       </c>
       <c r="M6" t="n">
-        <v>186462.5939980776</v>
+        <v>186462.5939980777</v>
       </c>
       <c r="N6" t="n">
-        <v>321263.6092319145</v>
+        <v>321263.6092319147</v>
       </c>
       <c r="O6" t="n">
-        <v>321263.6092319145</v>
+        <v>321263.6092319147</v>
       </c>
       <c r="P6" t="n">
-        <v>321263.6092319146</v>
+        <v>321263.6092319147</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26756,28 +26758,28 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>342.7311428911779</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>260.8147443664144</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>65.68408696586661</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>27.16725215060546</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>62.9274234712897</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>98.95375469339439</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>19.69148728644537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>62.45432460233781</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>349.8290685928256</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>27.94024844645389</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>127.9241472250321</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.33172135641799</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34781,22 +34783,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875336993</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35738,13 +35740,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
@@ -36680,19 +36682,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>754.9133157366322</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>192.8879430616487</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37321,13 +37323,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>350.198519175048</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38102,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>367.6637655623863</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1339880.230806537</v>
+        <v>1332863.215914826</v>
       </c>
     </row>
     <row r="7">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>11.95189872950512</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>20.13349987277675</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>127.7594927339634</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>129.0036366911897</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>115.9738437752621</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>188.2967440369996</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.50847190209162</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>245.1161996437262</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>341.7908522320151</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229328</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.7268375758688</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.74104475512576</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>4.467071307535834</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>118.8209292153264</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.3419076393841</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>17.36362416970258</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>176.8688121773851</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>174.3062600431781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>61.28680150266925</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>155.8385935972304</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>161.1706059301398</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>112.1509149027629</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>26.97444673954864</v>
       </c>
       <c r="H31" t="n">
-        <v>134.7660731567858</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>64.5252044802472</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>256.111763886877</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>155.8385935972304</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>155.8385935972313</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>29.08796962576824</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V43" t="n">
-        <v>161.1706059301398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4191,16 +4191,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>283.8073485474579</v>
+        <v>55.22804619697927</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1761.414268258235</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>1761.414268258235</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>903.2295632701455</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>492.2436584805379</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>74.2798503787248</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>74.2798503787248</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2134.880026519315</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1761.414268258235</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1761.414268258235</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.1394333084169</v>
+        <v>351.9927747426011</v>
       </c>
       <c r="C4" t="n">
-        <v>500.1394333084169</v>
+        <v>351.9927747426011</v>
       </c>
       <c r="D4" t="n">
-        <v>500.1394333084169</v>
+        <v>351.9927747426011</v>
       </c>
       <c r="E4" t="n">
-        <v>500.1394333084169</v>
+        <v>351.9927747426011</v>
       </c>
       <c r="F4" t="n">
-        <v>353.2494858105065</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>184.2496855488389</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>351.9927747426011</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084169</v>
+        <v>351.9927747426011</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1394.624369323446</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2580.003794275533</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2361.369127247596</v>
       </c>
       <c r="U5" t="n">
-        <v>2451.921670198211</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="V5" t="n">
-        <v>2120.85878285464</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="W5" t="n">
-        <v>1768.090127584526</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="X5" t="n">
-        <v>1394.624369323446</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y5" t="n">
-        <v>1394.624369323446</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>216.0380259561522</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C7" t="n">
-        <v>216.0380259561522</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>216.0380259561522</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>216.0380259561522</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>216.0380259561522</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>216.0380259561522</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>216.0380259561522</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>79.70911505480044</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541695</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541695</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X7" t="n">
-        <v>216.0380259561522</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.0380259561522</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>1920.40991897829</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1551.447402037879</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1193.181703431128</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1193.181703431128</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>782.1957986415207</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="X8" t="n">
-        <v>1613.045573852188</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="Y8" t="n">
-        <v>1222.906241876376</v>
+        <v>2307.009759042412</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414848</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>494.9102127870964</v>
+        <v>667.7988452409106</v>
       </c>
       <c r="C10" t="n">
-        <v>494.9102127870964</v>
+        <v>498.8626623130037</v>
       </c>
       <c r="D10" t="n">
-        <v>494.9102127870964</v>
+        <v>348.746022900668</v>
       </c>
       <c r="E10" t="n">
-        <v>494.9102127870964</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>709.1986359689337</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>494.9102127870964</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>494.9102127870964</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>494.9102127870964</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>494.9102127870964</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>494.9102127870964</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>494.9102127870964</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>494.9102127870964</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5038,19 +5038,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,16 +5059,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.8104215925219</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="C13" t="n">
-        <v>415.8104215925219</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>415.8104215925219</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>415.8104215925219</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.8104215925219</v>
+        <v>545.6648329070714</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>1387.841167119728</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>1387.841167119728</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5494,67 +5494,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>523.5986531011363</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>523.5986531011363</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>523.5986531011363</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>933.2366688293934</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W19" t="n">
-        <v>933.2366688293934</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="X19" t="n">
-        <v>705.247117931376</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>705.247117931376</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5767,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4503.139178847509</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>4334.202995919602</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>4184.086356507267</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014292</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>4860.854573014292</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>4860.854573014292</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4860.854573014292</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>4684.787643677749</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514088</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>711.072954880832</v>
+        <v>453.9259926442957</v>
       </c>
       <c r="C25" t="n">
-        <v>542.1367719529251</v>
+        <v>453.9259926442957</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>453.9259926442957</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>306.0128990619025</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>159.1229515639922</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="W25" t="n">
-        <v>1341.503549752619</v>
+        <v>674.7185717878258</v>
       </c>
       <c r="X25" t="n">
-        <v>1113.513998854602</v>
+        <v>674.7185717878258</v>
       </c>
       <c r="Y25" t="n">
-        <v>892.7214197110717</v>
+        <v>453.9259926442957</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,43 +6214,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1912.313820009359</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2432.614441745106</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>579.0685056491545</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>896.58386925998</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>896.58386925998</v>
       </c>
       <c r="X28" t="n">
-        <v>981.5095496229244</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y28" t="n">
-        <v>760.7169704793943</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4230.423978142506</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="C31" t="n">
-        <v>4061.487795214599</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="D31" t="n">
-        <v>3911.371155802263</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="E31" t="n">
-        <v>3763.45806221987</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="F31" t="n">
-        <v>3763.45806221987</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="G31" t="n">
-        <v>3595.282740539691</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V31" t="n">
-        <v>4860.854573014292</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W31" t="n">
-        <v>4860.854573014292</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X31" t="n">
-        <v>4632.865022116275</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y31" t="n">
-        <v>4412.072442972745</v>
+        <v>306.1124721890595</v>
       </c>
     </row>
     <row r="32">
@@ -6691,22 +6691,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4271.309566159736</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C34" t="n">
-        <v>4102.373383231829</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D34" t="n">
-        <v>4037.196409009357</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E34" t="n">
-        <v>3889.283315426964</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426964</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4525.994054365623</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4525.994054365623</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>4271.309566159736</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>4271.309566159736</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>4271.309566159736</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y34" t="n">
-        <v>4271.309566159736</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6955,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>711.072954880832</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C37" t="n">
-        <v>542.1367719529251</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7128,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>985.5330309511296</v>
       </c>
       <c r="W37" t="n">
-        <v>1341.503549752619</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X37" t="n">
-        <v>1113.513998854602</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y37" t="n">
-        <v>892.7214197110717</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="38">
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4230.423978142506</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C40" t="n">
-        <v>4061.487795214599</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D40" t="n">
-        <v>3911.371155802263</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E40" t="n">
-        <v>3763.45806221987</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>3616.56811472196</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>4860.854573014292</v>
+        <v>1469.534483057126</v>
       </c>
       <c r="W40" t="n">
-        <v>4860.854573014292</v>
+        <v>1180.117313020166</v>
       </c>
       <c r="X40" t="n">
-        <v>4632.865022116275</v>
+        <v>952.1277621221484</v>
       </c>
       <c r="Y40" t="n">
-        <v>4412.072442972745</v>
+        <v>731.3351829786183</v>
       </c>
     </row>
     <row r="41">
@@ -7393,22 +7393,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7432,7 +7432,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7602,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>1336.117678709276</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>1046.700508672316</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>818.7109577742983</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>597.9183786307682</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4039.3999548393</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C46" t="n">
-        <v>4039.3999548393</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>4039.3999548393</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V46" t="n">
-        <v>4039.3999548393</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W46" t="n">
-        <v>4039.3999548393</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X46" t="n">
-        <v>4039.3999548393</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y46" t="n">
-        <v>4039.3999548393</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783507</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>124.3400780863231</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>15.83804904622804</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
-        <v>104.8749102765746</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10603,13 +10603,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>159.0121003135246</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642685</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>282.0559270290552</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>106.8887261737108</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>154.2427457127107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>129.0703384768666</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>48.84084321165204</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.27839330891666</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>105.2067669607083</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24426,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>130.6844047393606</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>5.322962533237813</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,19 +24651,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>139.9867284210651</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5191217238289</v>
       </c>
       <c r="H31" t="n">
-        <v>14.14775521075038</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -24897,10 +24897,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>84.09026853796516</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>48.00368395686547</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25368,13 +25368,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>30.12558851170036</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>130.6844047393606</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>10.65497486614629</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25608,10 +25608,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>223.0496736980598</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25842,10 +25842,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V43" t="n">
-        <v>90.9670373936882</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>2.430003851119409</v>
+        <v>231.0093062015981</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>954562.9802107741</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
   </sheetData>
@@ -26319,28 +26319,28 @@
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="F2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="G2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="H2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="I2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="L2" t="n">
         <v>449683.4186983653</v>
@@ -26355,7 +26355,7 @@
         <v>449683.4186983653</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571278</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="G4" t="n">
         <v>36432.48351773394</v>
@@ -26438,7 +26438,7 @@
         <v>36432.48351773394</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="J4" t="n">
         <v>36432.48351773394</v>
@@ -26447,16 +26447,16 @@
         <v>36432.48351773395</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="M4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="P4" t="n">
         <v>36432.48351773395</v>
@@ -26475,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-384076.6264631189</v>
+        <v>-384076.6264631191</v>
       </c>
       <c r="C6" t="n">
         <v>205891.2527514256</v>
       </c>
       <c r="D6" t="n">
-        <v>205891.2527514254</v>
+        <v>205891.2527514253</v>
       </c>
       <c r="E6" t="n">
-        <v>-203896.4272449814</v>
+        <v>-204871.0185047028</v>
       </c>
       <c r="F6" t="n">
-        <v>321263.6092319146</v>
+        <v>320289.017972193</v>
       </c>
       <c r="G6" t="n">
-        <v>321263.6092319146</v>
+        <v>320289.017972193</v>
       </c>
       <c r="H6" t="n">
-        <v>321263.6092319146</v>
+        <v>320289.0179721929</v>
       </c>
       <c r="I6" t="n">
-        <v>321263.6092319147</v>
+        <v>320289.0179721929</v>
       </c>
       <c r="J6" t="n">
-        <v>144840.3900393217</v>
+        <v>143865.7987796</v>
       </c>
       <c r="K6" t="n">
-        <v>321263.6092319147</v>
+        <v>320289.0179721931</v>
       </c>
       <c r="L6" t="n">
-        <v>321263.6092319147</v>
+        <v>320289.0179721931</v>
       </c>
       <c r="M6" t="n">
-        <v>186462.5939980777</v>
+        <v>185488.002738356</v>
       </c>
       <c r="N6" t="n">
-        <v>321263.6092319147</v>
+        <v>320289.017972193</v>
       </c>
       <c r="O6" t="n">
-        <v>321263.6092319147</v>
+        <v>320289.0179721931</v>
       </c>
       <c r="P6" t="n">
-        <v>321263.6092319147</v>
+        <v>320289.017972193</v>
       </c>
     </row>
   </sheetData>
@@ -26737,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>342.7311428911779</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>131.7978163720845</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27548,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>17.66155528896788</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.16725215060546</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>58.44186903370947</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>62.9274234712897</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>19.69148728644537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>168.6679703770687</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481164</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>27.94024844645389</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060685</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491426</v>
       </c>
       <c r="R10" t="n">
-        <v>127.9241472250321</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3.487817442267745e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554471</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633804</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727385</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473558</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141115</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.84709008118892</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396482</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619157</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078615</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644447</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813581</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302245</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175851</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383806</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770696</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262111</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871396</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873155</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35740,13 +35740,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,22 +36126,22 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
         <v>59.82538970349766</v>
@@ -36202,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>326.2624260966944</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>192.8879430616487</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37323,13 +37323,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37624,7 +37624,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>469.4364773639908</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1332863.215914826</v>
+        <v>1337802.478763858</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>176.2579565692844</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>20.13349987277675</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>127.7594927339634</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>83.82466560786662</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>237.933284306384</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>115.9738437752621</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -955,7 +955,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>59.72683757586842</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.46389722690833</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>245.1161996437262</v>
+        <v>68.1131956482118</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229328</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.7268375758688</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>260.273858217525</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>118.8209292153264</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>170.4823919993432</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>136.9241283669921</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>176.8688121773851</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>5.562624396424693</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>61.28680150266925</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>174.7611531036558</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>112.1509149027629</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2845,7 +2845,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>101.0041688483411</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>26.97444673954864</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>246.3700647438664</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>256.111763886877</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>7.219312653648087</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>57.56452900498748</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>29.08796962576824</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>224.895256723152</v>
+        <v>185.1778893774797</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>61.47226067794325</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>55.22804619697927</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1289.01781586839</v>
+        <v>803.4111058960621</v>
       </c>
       <c r="C2" t="n">
-        <v>1289.01781586839</v>
+        <v>803.4111058960621</v>
       </c>
       <c r="D2" t="n">
-        <v>1289.01781586839</v>
+        <v>803.4111058960621</v>
       </c>
       <c r="E2" t="n">
-        <v>903.2295632701455</v>
+        <v>803.4111058960621</v>
       </c>
       <c r="F2" t="n">
-        <v>492.2436584805379</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>74.2798503787248</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>74.2798503787248</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y2" t="n">
-        <v>1289.01781586839</v>
+        <v>1190.010945960184</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9927747426011</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9927747426011</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>351.9927747426011</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>351.9927747426011</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>643.457604804549</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>354.283994459117</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406185</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X4" t="n">
-        <v>351.9927747426011</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y4" t="n">
-        <v>351.9927747426011</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.607341885688</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2580.003794275533</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2361.369127247596</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.607341885688</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2107.607341885688</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W5" t="n">
-        <v>2107.607341885688</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X5" t="n">
-        <v>2107.607341885688</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="Y5" t="n">
-        <v>2107.607341885688</v>
+        <v>1662.483574129469</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>713.5189870075369</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>563.4023475952011</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>415.489254012808</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.40991897829</v>
+        <v>1646.746562480845</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037879</v>
+        <v>1277.784045540433</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.181703431128</v>
+        <v>919.5183469336828</v>
       </c>
       <c r="E8" t="n">
-        <v>1193.181703431128</v>
+        <v>533.7300943354385</v>
       </c>
       <c r="F8" t="n">
-        <v>782.1957986415207</v>
+        <v>122.7441895458309</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018224</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018224</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018224</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018224</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018224</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042412</v>
+        <v>2033.346402544967</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.063382757265</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414848</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409106</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130037</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>348.746022900668</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5038,19 +5038,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,16 +5059,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>545.6648329070714</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>545.6648329070714</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947357</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1012.227968258999</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>757.5434800531123</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="X13" t="n">
-        <v>545.6648329070714</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y13" t="n">
-        <v>545.6648329070714</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="14">
@@ -5275,49 +5275,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>585.5099430858313</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>585.5099430858313</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5503,25 +5503,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5530,37 +5530,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1360.609070187203</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1360.609070187203</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765191</v>
+        <v>1360.609070187203</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765191</v>
+        <v>1105.924581981316</v>
       </c>
       <c r="W19" t="n">
-        <v>496.6650364395585</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>102.8359039819269</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>857.5427825698951</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>453.9259926442957</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C25" t="n">
-        <v>453.9259926442957</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D25" t="n">
-        <v>453.9259926442957</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E25" t="n">
-        <v>306.0128990619025</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>159.1229515639922</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028587</v>
@@ -6147,16 +6147,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247865</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>964.1357418247865</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>964.1357418247865</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W25" t="n">
-        <v>674.7185717878258</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X25" t="n">
-        <v>674.7185717878258</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y25" t="n">
-        <v>453.9259926442957</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6238,19 +6238,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>896.58386925998</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>896.58386925998</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>668.5943183619627</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.8017392184325</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,28 +6448,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6484,7 +6484,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.4640073588198</v>
+        <v>199.2415044384082</v>
       </c>
       <c r="C31" t="n">
-        <v>124.4640073588198</v>
+        <v>199.2415044384082</v>
       </c>
       <c r="D31" t="n">
-        <v>124.4640073588198</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>124.4640073588198</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>124.4640073588198</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V31" t="n">
-        <v>1044.311772267568</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W31" t="n">
-        <v>754.894602230607</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="X31" t="n">
-        <v>526.9050513325897</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="Y31" t="n">
-        <v>306.1124721890595</v>
+        <v>199.2415044384082</v>
       </c>
     </row>
     <row r="32">
@@ -6691,22 +6691,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>216.9038434870658</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C34" t="n">
-        <v>216.9038434870658</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D34" t="n">
-        <v>216.9038434870658</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>216.9038434870658</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="X34" t="n">
-        <v>437.6964226305959</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.9038434870658</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="35">
@@ -6934,34 +6934,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6973,7 +6973,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.3337308726216</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1240.217519157017</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V37" t="n">
-        <v>985.5330309511296</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W37" t="n">
-        <v>696.115860914169</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X37" t="n">
-        <v>468.1263100161517</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="Y37" t="n">
-        <v>247.3337308726216</v>
+        <v>523.8169520164281</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7174,16 +7174,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7192,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>731.3351829786183</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="C40" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V40" t="n">
-        <v>1469.534483057126</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W40" t="n">
-        <v>1180.117313020166</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X40" t="n">
-        <v>952.1277621221484</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y40" t="n">
-        <v>731.3351829786183</v>
+        <v>337.0115451844523</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7432,7 +7432,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7602,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1271.749344574921</v>
+        <v>1311.867897449337</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>1311.867897449337</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>1022.450727412377</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>794.4611765143592</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>573.668597370829</v>
       </c>
     </row>
     <row r="44">
@@ -7639,34 +7639,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7730,16 +7730,16 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>570.0299571250968</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M45" t="n">
         <v>1124.115218311523</v>
       </c>
       <c r="N45" t="n">
-        <v>1453.977845975556</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O45" t="n">
         <v>2123.441607278215</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.3337308726216</v>
+        <v>773.166147484815</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>604.2299645569082</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>454.1133251445724</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>306.2002315621793</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>159.3102840642689</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1019.424940013486</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>764.7404518075996</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>475.3232817706389</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>247.3337308726216</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y46" t="n">
-        <v>247.3337308726216</v>
+        <v>954.8146123150548</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,10 +8309,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783507</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>96.03744927814705</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>15.83804904622804</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>159.0121003135238</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>159.0121003135239</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>159.0121003135246</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4192454642685</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>25.96349418105234</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>106.8887261737108</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>48.10226135275158</v>
       </c>
     </row>
     <row r="17">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23940,22 +23940,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>60.99668161661117</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>48.84084321165204</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>160.9309440669529</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>105.2067669607083</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>43.82350024843896</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>139.9867284210651</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>47.61130416987122</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>139.5191217238289</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>48.00368395686547</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>39.86728765471099</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>30.12558851170036</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>218.4903427353891</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>109.6822920936403</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>223.0496736980598</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25842,10 +25842,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>61.3420956754253</v>
+        <v>101.0594630210977</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>105.0213077854343</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>231.0093062015981</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107741</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
@@ -26322,22 +26322,22 @@
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="F2" t="n">
         <v>449683.4186983653</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>449683.4186983653</v>
       </c>
-      <c r="H2" t="n">
-        <v>449683.4186983652</v>
-      </c>
       <c r="I2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983654</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="K2" t="n">
         <v>449683.4186983652</v>
@@ -26346,7 +26346,7 @@
         <v>449683.4186983653</v>
       </c>
       <c r="M2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="N2" t="n">
         <v>449683.4186983652</v>
@@ -26355,7 +26355,7 @@
         <v>449683.4186983653</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.418698365</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571278</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
         <v>36432.48351773395</v>
@@ -26435,13 +26435,13 @@
         <v>36432.48351773394</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="K4" t="n">
         <v>36432.48351773395</v>
@@ -26450,16 +26450,16 @@
         <v>36432.48351773396</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
     </row>
     <row r="5">
@@ -26475,25 +26475,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26527,43 +26527,43 @@
         <v>205891.2527514256</v>
       </c>
       <c r="D6" t="n">
-        <v>205891.2527514253</v>
+        <v>205891.2527514256</v>
       </c>
       <c r="E6" t="n">
-        <v>-204871.0185047028</v>
+        <v>-203993.8863709538</v>
       </c>
       <c r="F6" t="n">
-        <v>320289.017972193</v>
+        <v>321166.1501059426</v>
       </c>
       <c r="G6" t="n">
-        <v>320289.017972193</v>
+        <v>321166.1501059424</v>
       </c>
       <c r="H6" t="n">
-        <v>320289.0179721929</v>
+        <v>321166.1501059426</v>
       </c>
       <c r="I6" t="n">
-        <v>320289.0179721929</v>
+        <v>321166.1501059426</v>
       </c>
       <c r="J6" t="n">
-        <v>143865.7987796</v>
+        <v>144742.9309133496</v>
       </c>
       <c r="K6" t="n">
-        <v>320289.0179721931</v>
+        <v>321166.1501059424</v>
       </c>
       <c r="L6" t="n">
-        <v>320289.0179721931</v>
+        <v>321166.1501059426</v>
       </c>
       <c r="M6" t="n">
-        <v>185488.002738356</v>
+        <v>186365.1348721053</v>
       </c>
       <c r="N6" t="n">
-        <v>320289.017972193</v>
+        <v>321166.1501059424</v>
       </c>
       <c r="O6" t="n">
-        <v>320289.0179721931</v>
+        <v>321166.1501059426</v>
       </c>
       <c r="P6" t="n">
-        <v>320289.017972193</v>
+        <v>321166.1501059423</v>
       </c>
     </row>
   </sheetData>
@@ -26743,25 +26743,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26770,16 +26770,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>230.6180891724271</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>131.7978163720845</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,13 +27435,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>17.66155528896788</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>141.2104398502177</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>116.7497573142989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>58.44186903370947</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.65885272800598</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>168.6679703770687</v>
+        <v>345.6709743725832</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481164</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060685</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491426</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3.487817442267745e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554471</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633804</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727385</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473558</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141115</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118892</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396482</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619157</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078615</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644447</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813581</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302245</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175851</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383806</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,10 +35029,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770696</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262111</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871396</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873155</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35743,10 +35743,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>429.2320226761599</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>326.2624260966944</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>492.2066737115368</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>309.5875389014632</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>469.4364773639908</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
